--- a/Testdata/TestDataBeaconProject.xlsx
+++ b/Testdata/TestDataBeaconProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Beacon\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CA2205-4C7B-4908-A19F-0006B7D325C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACDBD03-0892-4C6F-943C-7416D8B12CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{4AEF5DBD-EE6A-4004-982A-8C543F1F40E6}"/>
   </bookViews>
@@ -156,7 +156,7 @@
     <t>CustomerDetails From BannedCustomerPage-Valid</t>
   </si>
   <si>
-    <t>123456789029</t>
+    <t>123456789004</t>
   </si>
 </sst>
 </file>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E9BBF-F33C-44D4-B794-DCEEA961B225}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Testdata/TestDataBeaconProject.xlsx
+++ b/Testdata/TestDataBeaconProject.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Beacon\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACDBD03-0892-4C6F-943C-7416D8B12CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A91DFC-83CC-4248-BC85-5F4C0B69CB9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{4AEF5DBD-EE6A-4004-982A-8C543F1F40E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{4AEF5DBD-EE6A-4004-982A-8C543F1F40E6}"/>
   </bookViews>
   <sheets>
     <sheet name="BannedCustomerSheet" sheetId="6" r:id="rId1"/>
+    <sheet name="RoleManagementSheet" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>AADHAR</t>
   </si>
@@ -157,13 +158,28 @@
   </si>
   <si>
     <t>123456789004</t>
+  </si>
+  <si>
+    <t>Basic Login and Navigation to Role Management</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>Create a new role through role management</t>
+  </si>
+  <si>
+    <t>Verify Role Search Functionality</t>
+  </si>
+  <si>
+    <t>TestRole34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +234,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Montserrat"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -233,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -267,12 +289,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,6 +368,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -648,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E9BBF-F33C-44D4-B794-DCEEA961B225}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,4 +986,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56D1433-9782-46BA-B7B6-0E0953B58090}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Testdata/TestDataBeaconProject.xlsx
+++ b/Testdata/TestDataBeaconProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Beacon\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A91DFC-83CC-4248-BC85-5F4C0B69CB9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AED9A53-C98D-4B2B-BD88-D0B27056F975}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{4AEF5DBD-EE6A-4004-982A-8C543F1F40E6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>AADHAR</t>
   </si>
@@ -157,9 +157,6 @@
     <t>CustomerDetails From BannedCustomerPage-Valid</t>
   </si>
   <si>
-    <t>123456789004</t>
-  </si>
-  <si>
     <t>Basic Login and Navigation to Role Management</t>
   </si>
   <si>
@@ -172,7 +169,34 @@
     <t>Verify Role Search Functionality</t>
   </si>
   <si>
-    <t>TestRole34</t>
+    <t>Verify Role Deactivation</t>
+  </si>
+  <si>
+    <t>Verify Role Search - Inactive</t>
+  </si>
+  <si>
+    <t>Verify Role Activation</t>
+  </si>
+  <si>
+    <t>Verify Pagination</t>
+  </si>
+  <si>
+    <t>123456789007</t>
+  </si>
+  <si>
+    <t>Verify Role Visibility in Role Management</t>
+  </si>
+  <si>
+    <t>Verify Role Visibility in add new user page inside Role Management page</t>
+  </si>
+  <si>
+    <t>Verify Role Edit Functionality</t>
+  </si>
+  <si>
+    <t>Verify Role Edit changes reflected in TestRole</t>
+  </si>
+  <si>
+    <t>Demo213</t>
   </si>
 </sst>
 </file>
@@ -309,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,9 +398,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -697,7 +718,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -990,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56D1433-9782-46BA-B7B6-0E0953B58090}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,36 +1031,94 @@
       <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>45</v>
+      <c r="C1" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
